--- a/consumos/dataset_consumo_YH-00052931.xlsx
+++ b/consumos/dataset_consumo_YH-00052931.xlsx
@@ -8,14 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CTM40\Desktop\Alfonso Almenara\__Proyectos__\SIAPEMAD\Plataforma SIAPEMAD\Siapemad_Dashboard\consumos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BDF3573-D7A7-4AF2-AB5A-357B078028C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80461183-232F-4B55-9CC0-1CAF6EE7C70D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -418,8 +431,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q2034"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView tabSelected="1" topLeftCell="A2008" workbookViewId="0">
+      <selection activeCell="G2039" sqref="G2039"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4221,10 +4234,10 @@
         <v>45171.711585648147</v>
       </c>
       <c r="D260">
-        <v>195.3</v>
+        <v>100</v>
       </c>
       <c r="I260">
-        <v>195.3</v>
+        <v>100</v>
       </c>
     </row>
     <row r="261" spans="1:9" x14ac:dyDescent="0.35">
@@ -4761,10 +4774,10 @@
         <v>45175.440752314818</v>
       </c>
       <c r="D296">
-        <v>277.39999999999998</v>
+        <v>100</v>
       </c>
       <c r="I296">
-        <v>277.39999999999998</v>
+        <v>100</v>
       </c>
     </row>
     <row r="297" spans="1:9" x14ac:dyDescent="0.35">
@@ -6119,10 +6132,10 @@
         <v>45181.836585648147</v>
       </c>
       <c r="C384">
-        <v>1586.2</v>
+        <v>100</v>
       </c>
       <c r="D384">
-        <v>1348.1</v>
+        <v>100</v>
       </c>
       <c r="E384">
         <v>1</v>
@@ -6131,7 +6144,7 @@
         <v>4</v>
       </c>
       <c r="I384">
-        <v>2939.3</v>
+        <v>200</v>
       </c>
     </row>
     <row r="385" spans="1:9" x14ac:dyDescent="0.35">
@@ -6142,10 +6155,10 @@
         <v>45181.836585648147</v>
       </c>
       <c r="C385">
-        <v>1586.2</v>
+        <v>100</v>
       </c>
       <c r="D385">
-        <v>1348.1</v>
+        <v>100</v>
       </c>
       <c r="E385">
         <v>1</v>
@@ -6154,7 +6167,7 @@
         <v>4</v>
       </c>
       <c r="I385">
-        <v>2939.3</v>
+        <v>200</v>
       </c>
     </row>
     <row r="386" spans="1:9" x14ac:dyDescent="0.35">
@@ -6165,10 +6178,10 @@
         <v>45181.836585648147</v>
       </c>
       <c r="C386">
-        <v>1586.2</v>
+        <v>100</v>
       </c>
       <c r="D386">
-        <v>1348.1</v>
+        <v>100</v>
       </c>
       <c r="E386">
         <v>1</v>
@@ -6177,7 +6190,7 @@
         <v>4</v>
       </c>
       <c r="I386">
-        <v>2939.3</v>
+        <v>200</v>
       </c>
     </row>
     <row r="387" spans="1:9" x14ac:dyDescent="0.35">
@@ -6188,10 +6201,10 @@
         <v>45181.836585648147</v>
       </c>
       <c r="C387">
-        <v>1586.2</v>
+        <v>100</v>
       </c>
       <c r="D387">
-        <v>1348.1</v>
+        <v>100</v>
       </c>
       <c r="E387">
         <v>1</v>
@@ -6200,7 +6213,7 @@
         <v>4</v>
       </c>
       <c r="I387">
-        <v>2939.3</v>
+        <v>200</v>
       </c>
     </row>
     <row r="388" spans="1:9" x14ac:dyDescent="0.35">
@@ -6211,7 +6224,7 @@
         <v>45181.840057870373</v>
       </c>
       <c r="C388">
-        <v>6976.2</v>
+        <v>100</v>
       </c>
       <c r="D388">
         <v>11</v>
@@ -6223,7 +6236,7 @@
         <v>0</v>
       </c>
       <c r="I388">
-        <v>6988.2</v>
+        <v>111</v>
       </c>
     </row>
     <row r="389" spans="1:9" x14ac:dyDescent="0.35">
@@ -6234,7 +6247,7 @@
         <v>45181.840057870373</v>
       </c>
       <c r="C389">
-        <v>6976.2</v>
+        <v>100</v>
       </c>
       <c r="D389">
         <v>11</v>
@@ -6246,7 +6259,7 @@
         <v>0</v>
       </c>
       <c r="I389">
-        <v>6988.2</v>
+        <v>111</v>
       </c>
     </row>
     <row r="390" spans="1:9" x14ac:dyDescent="0.35">
@@ -6257,7 +6270,7 @@
         <v>45181.840057870373</v>
       </c>
       <c r="C390">
-        <v>6976.2</v>
+        <v>100</v>
       </c>
       <c r="D390">
         <v>11</v>
@@ -6269,7 +6282,7 @@
         <v>0</v>
       </c>
       <c r="I390">
-        <v>6988.2</v>
+        <v>111</v>
       </c>
     </row>
     <row r="391" spans="1:9" x14ac:dyDescent="0.35">
@@ -6280,7 +6293,7 @@
         <v>45181.840057870373</v>
       </c>
       <c r="C391">
-        <v>6976.2</v>
+        <v>100</v>
       </c>
       <c r="D391">
         <v>11</v>
@@ -6292,7 +6305,7 @@
         <v>0</v>
       </c>
       <c r="I391">
-        <v>6988.2</v>
+        <v>111</v>
       </c>
     </row>
     <row r="392" spans="1:9" x14ac:dyDescent="0.35">
@@ -7413,13 +7426,13 @@
         <v>45194.451168981483</v>
       </c>
       <c r="C464">
-        <v>400.4</v>
+        <v>100</v>
       </c>
       <c r="E464">
         <v>9.4</v>
       </c>
       <c r="I464">
-        <v>409.8</v>
+        <v>109.4</v>
       </c>
     </row>
     <row r="465" spans="1:9" x14ac:dyDescent="0.35">
@@ -7430,13 +7443,13 @@
         <v>45194.451168981483</v>
       </c>
       <c r="C465">
-        <v>400.4</v>
+        <v>100</v>
       </c>
       <c r="E465">
         <v>9.4</v>
       </c>
       <c r="I465">
-        <v>409.8</v>
+        <v>109.4</v>
       </c>
     </row>
     <row r="466" spans="1:9" x14ac:dyDescent="0.35">
@@ -7447,10 +7460,10 @@
         <v>45194.465057870373</v>
       </c>
       <c r="D466">
-        <v>803.3</v>
+        <v>100</v>
       </c>
       <c r="I466">
-        <v>803.3</v>
+        <v>100</v>
       </c>
     </row>
     <row r="467" spans="1:9" x14ac:dyDescent="0.35">
@@ -8081,13 +8094,13 @@
         <v>45199.822696759264</v>
       </c>
       <c r="C507">
-        <v>618.29999999999995</v>
+        <v>100</v>
       </c>
       <c r="F507">
         <v>2.1</v>
       </c>
       <c r="I507">
-        <v>620.4</v>
+        <v>102.1</v>
       </c>
     </row>
     <row r="508" spans="1:9" x14ac:dyDescent="0.35">
@@ -8098,13 +8111,13 @@
         <v>45199.822696759264</v>
       </c>
       <c r="C508">
-        <v>618.29999999999995</v>
+        <v>100</v>
       </c>
       <c r="F508">
         <v>2.1</v>
       </c>
       <c r="I508">
-        <v>620.4</v>
+        <v>102.1</v>
       </c>
     </row>
     <row r="509" spans="1:9" x14ac:dyDescent="0.35">
@@ -8741,10 +8754,10 @@
         <v>45204.447696759264</v>
       </c>
       <c r="C552">
-        <v>1340.7</v>
+        <v>100</v>
       </c>
       <c r="I552">
-        <v>1340.7</v>
+        <v>100</v>
       </c>
     </row>
     <row r="553" spans="1:9" x14ac:dyDescent="0.35">
@@ -8755,10 +8768,10 @@
         <v>45204.458113425928</v>
       </c>
       <c r="C553">
-        <v>796.7</v>
+        <v>100</v>
       </c>
       <c r="I553">
-        <v>796.7</v>
+        <v>100</v>
       </c>
     </row>
     <row r="554" spans="1:9" x14ac:dyDescent="0.35">
@@ -9283,13 +9296,13 @@
         <v>45208.742835648147</v>
       </c>
       <c r="D589">
-        <v>460.7</v>
+        <v>100</v>
       </c>
       <c r="E589">
         <v>0.5</v>
       </c>
       <c r="I589">
-        <v>461.2</v>
+        <v>100.5</v>
       </c>
     </row>
     <row r="590" spans="1:9" x14ac:dyDescent="0.35">
@@ -9300,13 +9313,13 @@
         <v>45208.742835648147</v>
       </c>
       <c r="D590">
-        <v>460.7</v>
+        <v>100</v>
       </c>
       <c r="E590">
         <v>0.5</v>
       </c>
       <c r="I590">
-        <v>461.2</v>
+        <v>100.5</v>
       </c>
     </row>
     <row r="591" spans="1:9" x14ac:dyDescent="0.35">
@@ -9317,13 +9330,13 @@
         <v>45208.746307870373</v>
       </c>
       <c r="D591">
-        <v>424.8</v>
+        <v>100</v>
       </c>
       <c r="E591">
         <v>22.9</v>
       </c>
       <c r="I591">
-        <v>447.7</v>
+        <v>122.9</v>
       </c>
     </row>
     <row r="592" spans="1:9" x14ac:dyDescent="0.35">
@@ -9334,13 +9347,13 @@
         <v>45208.746307870373</v>
       </c>
       <c r="D592">
-        <v>424.8</v>
+        <v>100</v>
       </c>
       <c r="E592">
         <v>22.9</v>
       </c>
       <c r="I592">
-        <v>447.7</v>
+        <v>122.9</v>
       </c>
     </row>
     <row r="593" spans="1:9" x14ac:dyDescent="0.35">
@@ -9399,13 +9412,13 @@
         <v>45208.853946759264</v>
       </c>
       <c r="C596">
-        <v>2496.6999999999998</v>
+        <v>100</v>
       </c>
       <c r="D596">
         <v>7.1</v>
       </c>
       <c r="I596">
-        <v>2503.8000000000002</v>
+        <v>107.1</v>
       </c>
     </row>
     <row r="597" spans="1:9" x14ac:dyDescent="0.35">
@@ -9416,13 +9429,13 @@
         <v>45208.853946759264</v>
       </c>
       <c r="C597">
-        <v>2496.6999999999998</v>
+        <v>100</v>
       </c>
       <c r="D597">
         <v>7.1</v>
       </c>
       <c r="I597">
-        <v>2503.8000000000002</v>
+        <v>107.1</v>
       </c>
     </row>
     <row r="598" spans="1:9" x14ac:dyDescent="0.35">
@@ -10039,10 +10052,10 @@
         <v>45212.808807870373</v>
       </c>
       <c r="C637">
-        <v>1292.7</v>
+        <v>100</v>
       </c>
       <c r="I637">
-        <v>1292.7</v>
+        <v>100</v>
       </c>
     </row>
     <row r="638" spans="1:9" x14ac:dyDescent="0.35">
@@ -10053,10 +10066,10 @@
         <v>45212.812280092592</v>
       </c>
       <c r="C638">
-        <v>3294.5</v>
+        <v>100</v>
       </c>
       <c r="I638">
-        <v>3294.5</v>
+        <v>100</v>
       </c>
     </row>
     <row r="639" spans="1:9" x14ac:dyDescent="0.35">
@@ -10509,10 +10522,10 @@
         <v>45216.822696759264</v>
       </c>
       <c r="C668">
-        <v>2620.9</v>
+        <v>100</v>
       </c>
       <c r="I668">
-        <v>2620.9</v>
+        <v>100</v>
       </c>
     </row>
     <row r="669" spans="1:9" x14ac:dyDescent="0.35">
@@ -10649,13 +10662,13 @@
         <v>45218.819224537037</v>
       </c>
       <c r="C678">
-        <v>4830.8999999999996</v>
+        <v>100</v>
       </c>
       <c r="E678">
         <v>4.2</v>
       </c>
       <c r="I678">
-        <v>4835.0999999999995</v>
+        <v>100</v>
       </c>
     </row>
     <row r="679" spans="1:9" x14ac:dyDescent="0.35">
@@ -10666,13 +10679,13 @@
         <v>45218.819224537037</v>
       </c>
       <c r="C679">
-        <v>4830.8999999999996</v>
+        <v>100</v>
       </c>
       <c r="E679">
         <v>4.2</v>
       </c>
       <c r="I679">
-        <v>4835.0999999999995</v>
+        <v>100</v>
       </c>
     </row>
     <row r="680" spans="1:9" x14ac:dyDescent="0.35">
@@ -11075,10 +11088,10 @@
         <v>45221.496307870373</v>
       </c>
       <c r="C705">
-        <v>1005.7</v>
+        <v>100</v>
       </c>
       <c r="I705">
-        <v>1005.7</v>
+        <v>100</v>
       </c>
     </row>
     <row r="706" spans="1:9" x14ac:dyDescent="0.35">
@@ -11191,13 +11204,13 @@
         <v>45221.746307870373</v>
       </c>
       <c r="D712">
-        <v>468.1</v>
+        <v>100</v>
       </c>
       <c r="E712">
         <v>23.6</v>
       </c>
       <c r="I712">
-        <v>491.7</v>
+        <v>123.6</v>
       </c>
     </row>
     <row r="713" spans="1:9" x14ac:dyDescent="0.35">
@@ -11208,13 +11221,13 @@
         <v>45221.746307870373</v>
       </c>
       <c r="D713">
-        <v>468.1</v>
+        <v>100</v>
       </c>
       <c r="E713">
         <v>23.6</v>
       </c>
       <c r="I713">
-        <v>491.7</v>
+        <v>123.6</v>
       </c>
     </row>
     <row r="714" spans="1:9" x14ac:dyDescent="0.35">
@@ -11293,13 +11306,13 @@
         <v>45221.843530092592</v>
       </c>
       <c r="C718">
-        <v>1470.3</v>
+        <v>100</v>
       </c>
       <c r="D718">
         <v>6.6</v>
       </c>
       <c r="I718">
-        <v>1476.9</v>
+        <v>106.6</v>
       </c>
     </row>
     <row r="719" spans="1:9" x14ac:dyDescent="0.35">
@@ -11310,13 +11323,13 @@
         <v>45221.843530092592</v>
       </c>
       <c r="C719">
-        <v>1470.3</v>
+        <v>100</v>
       </c>
       <c r="D719">
         <v>6.6</v>
       </c>
       <c r="I719">
-        <v>1476.9</v>
+        <v>106.6</v>
       </c>
     </row>
     <row r="720" spans="1:9" x14ac:dyDescent="0.35">
@@ -11327,13 +11340,13 @@
         <v>45221.853946759264</v>
       </c>
       <c r="C720">
-        <v>2496.6999999999998</v>
+        <v>100</v>
       </c>
       <c r="D720">
         <v>7.6</v>
       </c>
       <c r="I720">
-        <v>2504.3000000000002</v>
+        <v>107.6</v>
       </c>
     </row>
     <row r="721" spans="1:9" x14ac:dyDescent="0.35">
@@ -11344,13 +11357,13 @@
         <v>45221.853946759264</v>
       </c>
       <c r="C721">
-        <v>2496.6999999999998</v>
+        <v>100</v>
       </c>
       <c r="D721">
         <v>7.6</v>
       </c>
       <c r="I721">
-        <v>2504.3000000000002</v>
+        <v>107.6</v>
       </c>
     </row>
     <row r="722" spans="1:9" x14ac:dyDescent="0.35">
@@ -13311,10 +13324,10 @@
         <v>45231.899085648147</v>
       </c>
       <c r="C848">
-        <v>1140.5</v>
+        <v>100</v>
       </c>
       <c r="I848">
-        <v>1140.5</v>
+        <v>100</v>
       </c>
     </row>
     <row r="849" spans="1:9" x14ac:dyDescent="0.35">
@@ -13817,13 +13830,13 @@
         <v>45232.885196759264</v>
       </c>
       <c r="C879">
-        <v>3355.6</v>
+        <v>100</v>
       </c>
       <c r="D879">
         <v>27.7</v>
       </c>
       <c r="I879">
-        <v>3383.3</v>
+        <v>127.7</v>
       </c>
     </row>
     <row r="880" spans="1:9" x14ac:dyDescent="0.35">
@@ -13834,13 +13847,13 @@
         <v>45232.885196759264</v>
       </c>
       <c r="C880">
-        <v>3355.6</v>
+        <v>100</v>
       </c>
       <c r="D880">
         <v>27.7</v>
       </c>
       <c r="I880">
-        <v>3383.3</v>
+        <v>127.7</v>
       </c>
     </row>
     <row r="881" spans="1:9" x14ac:dyDescent="0.35">
@@ -13851,7 +13864,7 @@
         <v>45232.892141203702</v>
       </c>
       <c r="C881">
-        <v>6692.2</v>
+        <v>100</v>
       </c>
       <c r="D881">
         <v>0</v>
@@ -13860,7 +13873,7 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="I881">
-        <v>6697.3</v>
+        <v>100</v>
       </c>
     </row>
     <row r="882" spans="1:9" x14ac:dyDescent="0.35">
@@ -13871,7 +13884,7 @@
         <v>45232.892141203702</v>
       </c>
       <c r="C882">
-        <v>6692.2</v>
+        <v>100</v>
       </c>
       <c r="D882">
         <v>0</v>
@@ -13880,7 +13893,7 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="I882">
-        <v>6697.3</v>
+        <v>100</v>
       </c>
     </row>
     <row r="883" spans="1:9" x14ac:dyDescent="0.35">
@@ -13891,7 +13904,7 @@
         <v>45232.892141203702</v>
       </c>
       <c r="C883">
-        <v>6692.2</v>
+        <v>100</v>
       </c>
       <c r="D883">
         <v>0</v>
@@ -13900,7 +13913,7 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="I883">
-        <v>6697.3</v>
+        <v>100</v>
       </c>
     </row>
     <row r="884" spans="1:9" x14ac:dyDescent="0.35">
@@ -15013,10 +15026,10 @@
         <v>45237.763668981483</v>
       </c>
       <c r="D955">
-        <v>445.2</v>
+        <v>100</v>
       </c>
       <c r="I955">
-        <v>445.2</v>
+        <v>100</v>
       </c>
     </row>
     <row r="956" spans="1:9" x14ac:dyDescent="0.35">
@@ -15027,10 +15040,10 @@
         <v>45237.784502314818</v>
       </c>
       <c r="D956">
-        <v>650.6</v>
+        <v>100</v>
       </c>
       <c r="I956">
-        <v>650.6</v>
+        <v>100</v>
       </c>
     </row>
     <row r="957" spans="1:9" x14ac:dyDescent="0.35">
@@ -21581,10 +21594,10 @@
         <v>45265.923391203702</v>
       </c>
       <c r="C1383">
-        <v>1909.9</v>
+        <v>100</v>
       </c>
       <c r="I1383">
-        <v>1909.9</v>
+        <v>100</v>
       </c>
     </row>
     <row r="1384" spans="1:9" x14ac:dyDescent="0.35">
@@ -21595,13 +21608,13 @@
         <v>45265.926863425928</v>
       </c>
       <c r="C1384">
-        <v>5003.4000000000005</v>
+        <v>100</v>
       </c>
       <c r="F1384">
         <v>4.2</v>
       </c>
       <c r="I1384">
-        <v>5007.6000000000004</v>
+        <v>104.2</v>
       </c>
     </row>
     <row r="1385" spans="1:9" x14ac:dyDescent="0.35">
@@ -21612,13 +21625,13 @@
         <v>45265.926863425928</v>
       </c>
       <c r="C1385">
-        <v>5003.4000000000005</v>
+        <v>100</v>
       </c>
       <c r="F1385">
         <v>4.2</v>
       </c>
       <c r="I1385">
-        <v>5007.6000000000004</v>
+        <v>104.2</v>
       </c>
     </row>
     <row r="1386" spans="1:9" x14ac:dyDescent="0.35">
@@ -21629,10 +21642,10 @@
         <v>45265.933807870373</v>
       </c>
       <c r="C1386">
-        <v>6010.7000000000007</v>
+        <v>100</v>
       </c>
       <c r="I1386">
-        <v>6010.7000000000007</v>
+        <v>100</v>
       </c>
     </row>
     <row r="1387" spans="1:9" x14ac:dyDescent="0.35">
@@ -21947,13 +21960,13 @@
         <v>45267.857418981483</v>
       </c>
       <c r="C1407">
-        <v>6622.9999999999991</v>
+        <v>100</v>
       </c>
       <c r="E1407">
         <v>15.4</v>
       </c>
       <c r="I1407">
-        <v>6638.3999999999987</v>
+        <v>100</v>
       </c>
     </row>
     <row r="1408" spans="1:9" x14ac:dyDescent="0.35">
@@ -21964,13 +21977,13 @@
         <v>45267.857418981483</v>
       </c>
       <c r="C1408">
-        <v>6622.9999999999991</v>
+        <v>100</v>
       </c>
       <c r="E1408">
         <v>15.4</v>
       </c>
       <c r="I1408">
-        <v>6638.3999999999987</v>
+        <v>100</v>
       </c>
     </row>
     <row r="1409" spans="1:9" x14ac:dyDescent="0.35">
@@ -21981,13 +21994,13 @@
         <v>45267.860891203702</v>
       </c>
       <c r="C1409">
-        <v>5109.2</v>
+        <v>100</v>
       </c>
       <c r="E1409">
         <v>0</v>
       </c>
       <c r="I1409">
-        <v>5109.2</v>
+        <v>100</v>
       </c>
     </row>
     <row r="1410" spans="1:9" x14ac:dyDescent="0.35">
@@ -21998,13 +22011,13 @@
         <v>45267.860891203702</v>
       </c>
       <c r="C1410">
-        <v>5109.2</v>
+        <v>100</v>
       </c>
       <c r="E1410">
         <v>0</v>
       </c>
       <c r="I1410">
-        <v>5109.2</v>
+        <v>100</v>
       </c>
     </row>
     <row r="1411" spans="1:9" x14ac:dyDescent="0.35">
@@ -22015,7 +22028,7 @@
         <v>45267.867835648147</v>
       </c>
       <c r="C1411">
-        <v>6373.9000000000005</v>
+        <v>100</v>
       </c>
       <c r="F1411">
         <v>3.9</v>
@@ -22024,7 +22037,8 @@
         <v>7.8</v>
       </c>
       <c r="I1411">
-        <v>6385.6</v>
+        <f>SUM(C1411:H1411)</f>
+        <v>111.7</v>
       </c>
     </row>
     <row r="1412" spans="1:9" x14ac:dyDescent="0.35">
@@ -22035,7 +22049,7 @@
         <v>45267.867835648147</v>
       </c>
       <c r="C1412">
-        <v>6373.9000000000005</v>
+        <v>100</v>
       </c>
       <c r="F1412">
         <v>3.9</v>
@@ -22044,7 +22058,8 @@
         <v>7.8</v>
       </c>
       <c r="I1412">
-        <v>6385.6</v>
+        <f t="shared" ref="I1412:I1413" si="0">SUM(C1412:H1412)</f>
+        <v>111.7</v>
       </c>
     </row>
     <row r="1413" spans="1:9" x14ac:dyDescent="0.35">
@@ -22055,7 +22070,7 @@
         <v>45267.867835648147</v>
       </c>
       <c r="C1413">
-        <v>6373.9000000000005</v>
+        <v>100</v>
       </c>
       <c r="F1413">
         <v>3.9</v>
@@ -22064,7 +22079,8 @@
         <v>7.8</v>
       </c>
       <c r="I1413">
-        <v>6385.6</v>
+        <f t="shared" si="0"/>
+        <v>111.7</v>
       </c>
     </row>
     <row r="1414" spans="1:9" x14ac:dyDescent="0.35">
@@ -28119,10 +28135,10 @@
         <v>45304.885196759264</v>
       </c>
       <c r="C1820">
-        <v>1536.5</v>
+        <v>100</v>
       </c>
       <c r="I1820">
-        <v>1536.5</v>
+        <v>100</v>
       </c>
     </row>
     <row r="1821" spans="1:9" x14ac:dyDescent="0.35">
@@ -28259,10 +28275,10 @@
         <v>45305.572696759264</v>
       </c>
       <c r="C1830">
-        <v>969.8</v>
+        <v>100</v>
       </c>
       <c r="I1830">
-        <v>969.8</v>
+        <v>100</v>
       </c>
     </row>
     <row r="1831" spans="1:9" x14ac:dyDescent="0.35">
@@ -28273,13 +28289,13 @@
         <v>45305.586585648147</v>
       </c>
       <c r="C1831">
-        <v>5529.0999999999995</v>
+        <v>100</v>
       </c>
       <c r="E1831">
         <v>8.5</v>
       </c>
       <c r="I1831">
-        <v>5537.5999999999995</v>
+        <v>108.5</v>
       </c>
     </row>
     <row r="1832" spans="1:9" x14ac:dyDescent="0.35">
@@ -28290,13 +28306,13 @@
         <v>45305.586585648147</v>
       </c>
       <c r="C1832">
-        <v>5529.0999999999995</v>
+        <v>100</v>
       </c>
       <c r="E1832">
         <v>8.5</v>
       </c>
       <c r="I1832">
-        <v>5537.5999999999995</v>
+        <v>108.5</v>
       </c>
     </row>
     <row r="1833" spans="1:9" x14ac:dyDescent="0.35">
